--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -151,10 +151,6 @@
   <si>
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.  
 Coverageには、保険証レベルの情報が含まれている。これは、保険金請求やプロバイダと保険会社間のその他の通信で提供するのが通例である。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1761,10 +1757,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>31</v>
@@ -1784,10 +1780,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1798,28 +1794,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1869,13 +1865,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1904,10 +1900,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1918,25 +1914,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1987,19 +1983,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2022,10 +2018,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2036,28 +2032,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2107,19 +2103,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2142,10 +2138,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2156,7 +2152,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2168,16 +2164,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2203,43 +2199,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2262,21 +2258,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2288,16 +2284,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2347,25 +2343,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2382,14 +2378,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2408,16 +2404,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2467,7 +2463,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2485,7 +2481,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2502,10 +2498,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2528,13 +2524,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2573,17 +2569,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2595,7 +2591,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2618,13 +2614,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2646,16 +2642,16 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2705,7 +2701,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2714,10 +2710,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2740,13 +2736,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2768,16 +2764,16 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2827,7 +2823,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2836,10 +2832,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2862,13 +2858,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2890,16 +2886,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2949,7 +2945,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2958,10 +2954,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2984,14 +2980,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3004,25 +3000,25 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3071,7 +3067,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3083,13 +3079,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3106,10 +3102,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3129,22 +3125,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3193,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3205,33 +3201,33 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AO13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3239,34 +3235,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="J14" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3291,52 +3287,52 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3350,10 +3346,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3364,31 +3360,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3413,58 +3409,58 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>38</v>
@@ -3472,10 +3468,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3486,31 +3482,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3559,19 +3555,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3580,24 +3576,24 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3608,31 +3604,31 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3681,19 +3677,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3702,24 +3698,24 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3730,29 +3726,29 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3801,19 +3797,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3822,24 +3818,24 @@
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3847,34 +3843,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3923,45 +3919,45 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3972,31 +3968,31 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -4045,19 +4041,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -4069,10 +4065,10 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4080,10 +4076,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4094,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4106,19 +4102,19 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4143,55 +4139,55 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4202,10 +4198,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4216,31 +4212,31 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4289,34 +4285,34 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4324,10 +4320,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4335,7 +4331,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -4347,22 +4343,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4411,10 +4407,10 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -4423,7 +4419,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4432,24 +4428,24 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4472,19 +4468,19 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4533,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4545,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -4568,10 +4564,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4582,7 +4578,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4594,13 +4590,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4651,25 +4647,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4686,14 +4682,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4712,16 +4708,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4771,7 +4767,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4783,13 +4779,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4806,14 +4802,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4826,25 +4822,25 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="N27" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4893,7 +4889,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4905,13 +4901,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4928,10 +4924,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4939,34 +4935,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4991,14 +4987,14 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
       </c>
@@ -5015,19 +5011,19 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -5050,10 +5046,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5061,34 +5057,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5137,19 +5133,19 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -5161,21 +5157,21 @@
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5186,29 +5182,29 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5257,19 +5253,19 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5281,21 +5277,21 @@
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5306,31 +5302,31 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5379,19 +5375,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5406,7 +5402,7 @@
         <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
@@ -5414,10 +5410,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5428,29 +5424,29 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -5499,19 +5495,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5523,7 +5519,7 @@
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5534,14 +5530,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5560,19 +5556,19 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5621,7 +5617,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5633,7 +5629,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5656,10 +5652,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5670,7 +5666,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5682,13 +5678,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5739,25 +5735,25 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5774,14 +5770,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5800,16 +5796,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5859,7 +5855,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5871,13 +5867,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5894,14 +5890,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5914,25 +5910,25 @@
         <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="N36" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5981,7 +5977,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5993,13 +5989,13 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -6016,10 +6012,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6030,31 +6026,31 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6079,14 +6075,14 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
       </c>
@@ -6103,19 +6099,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6138,10 +6134,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6152,7 +6148,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6164,13 +6160,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6221,25 +6217,25 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6256,14 +6252,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6282,16 +6278,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6329,19 +6325,19 @@
         <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6353,13 +6349,13 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6376,10 +6372,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6399,22 +6395,22 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6463,7 +6459,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6475,22 +6471,22 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>38</v>
@@ -6498,10 +6494,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6512,7 +6508,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6524,13 +6520,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6581,25 +6577,25 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6616,14 +6612,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6642,16 +6638,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6689,19 +6685,19 @@
         <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AF42" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6713,13 +6709,13 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6736,10 +6732,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6750,31 +6746,31 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6823,34 +6819,34 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -6858,10 +6854,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6872,28 +6868,28 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6943,34 +6939,34 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>38</v>
@@ -6978,10 +6974,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6992,31 +6988,31 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7065,34 +7061,34 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>38</v>
@@ -7100,10 +7096,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7114,29 +7110,29 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7185,34 +7181,34 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>38</v>
@@ -7220,10 +7216,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7234,31 +7230,31 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7307,34 +7303,34 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>38</v>
@@ -7342,10 +7338,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7356,31 +7352,31 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7429,34 +7425,34 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7464,10 +7460,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7475,34 +7471,34 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7551,19 +7547,19 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7575,21 +7571,21 @@
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO49" t="s" s="2">
+      <c r="AP49" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7612,17 +7608,17 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7671,7 +7667,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7683,7 +7679,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7706,10 +7702,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7720,7 +7716,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7732,13 +7728,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7789,25 +7785,25 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7824,14 +7820,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7850,16 +7846,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7909,7 +7905,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7921,13 +7917,13 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7944,14 +7940,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7964,25 +7960,25 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="N53" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8031,7 +8027,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8043,13 +8039,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8066,10 +8062,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8077,32 +8073,32 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8127,14 +8123,14 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8151,19 +8147,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8186,10 +8182,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8200,29 +8196,29 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8271,19 +8267,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8306,10 +8302,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8320,7 +8316,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8332,19 +8328,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8393,19 +8389,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8428,10 +8424,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8454,19 +8450,19 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8515,7 +8511,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8527,25 +8523,25 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
